--- a/data/trans_orig/P57B6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>291768</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>260461</v>
+        <v>264699</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>320193</v>
+        <v>320028</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4233287611735976</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3779049111315526</v>
+        <v>0.3840543531148284</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4645702343346627</v>
+        <v>0.4643309653516706</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>311</v>
@@ -762,19 +762,19 @@
         <v>219698</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>198758</v>
+        <v>196720</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>243012</v>
+        <v>240245</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3015045540942624</v>
+        <v>0.3015045540942623</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2727671140304975</v>
+        <v>0.2699705626097472</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3334989373575623</v>
+        <v>0.3297025826873679</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>578</v>
@@ -783,19 +783,19 @@
         <v>511467</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>476383</v>
+        <v>474805</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>552393</v>
+        <v>551620</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3607219674186492</v>
+        <v>0.3607219674186493</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3359789104840947</v>
+        <v>0.3348658446918713</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3895864337104735</v>
+        <v>0.389041082248571</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>293165</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>266571</v>
+        <v>269405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>322472</v>
+        <v>322357</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.425355872205631</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3867701980335064</v>
+        <v>0.3908813654947182</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4678766275117304</v>
+        <v>0.4677100428088143</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>574</v>
@@ -833,19 +833,19 @@
         <v>328621</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307338</v>
+        <v>304956</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>351825</v>
+        <v>350549</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4509851616180827</v>
+        <v>0.4509851616180828</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4217774296255412</v>
+        <v>0.418509078823017</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4828291800560339</v>
+        <v>0.4810782373871503</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>903</v>
@@ -854,19 +854,19 @@
         <v>621786</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>584098</v>
+        <v>583238</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>657627</v>
+        <v>658033</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4385270446252987</v>
+        <v>0.4385270446252989</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4119467546551278</v>
+        <v>0.41134009030381</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4638044597638441</v>
+        <v>0.4640907004274223</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>88312</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>72850</v>
+        <v>73407</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>105843</v>
+        <v>106643</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1281327519650753</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1056980029894151</v>
+        <v>0.106506529826205</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1535682791989297</v>
+        <v>0.154728624993401</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>311</v>
@@ -904,19 +904,19 @@
         <v>159959</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>143037</v>
+        <v>142657</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>176849</v>
+        <v>177608</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2195206670633462</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1962974451252517</v>
+        <v>0.1957760286665072</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2427004538449448</v>
+        <v>0.2437419206441715</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>429</v>
@@ -925,19 +925,19 @@
         <v>248271</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>222464</v>
+        <v>225222</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>275472</v>
+        <v>275213</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1750980020530662</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1568973573891737</v>
+        <v>0.1588422015367805</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1942819546847987</v>
+        <v>0.1940996125431156</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>15978</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9052</v>
+        <v>9160</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26914</v>
+        <v>25777</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02318261465569618</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01313345067530027</v>
+        <v>0.01328989805061732</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03904910876300338</v>
+        <v>0.03740075584427528</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -975,7 +975,7 @@
         <v>20395</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14039</v>
+        <v>13873</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>28006</v>
@@ -984,10 +984,10 @@
         <v>0.02798961722430873</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01926705727853812</v>
+        <v>0.01903927626526619</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03843383300824965</v>
+        <v>0.03843465549999409</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -996,19 +996,19 @@
         <v>36373</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26906</v>
+        <v>26449</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49829</v>
+        <v>50178</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02565298590298569</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01897573198339697</v>
+        <v>0.0186536574450938</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03514323273850414</v>
+        <v>0.03538888035286964</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>451940</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>414899</v>
+        <v>410939</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>487585</v>
+        <v>483762</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.431228587654623</v>
+        <v>0.4312285876546229</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3958851025504976</v>
+        <v>0.3921064486875677</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.465239970273972</v>
+        <v>0.4615924514679126</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>463</v>
@@ -1121,19 +1121,19 @@
         <v>374883</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>346015</v>
+        <v>343489</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>403629</v>
+        <v>403762</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3515158478845439</v>
+        <v>0.351515847884544</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.324448051381934</v>
+        <v>0.3220786583706873</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3784706609327065</v>
+        <v>0.3785951036870633</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>835</v>
@@ -1142,19 +1142,19 @@
         <v>826823</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>785165</v>
+        <v>783490</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>872362</v>
+        <v>875348</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3910245528744056</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3713237476397066</v>
+        <v>0.3705314847463576</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4125613781244825</v>
+        <v>0.4139734837798408</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>453966</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>418626</v>
+        <v>418713</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>489847</v>
+        <v>492065</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4331612200767827</v>
+        <v>0.4331612200767826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3994411310198778</v>
+        <v>0.3995243019371845</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4673985471591114</v>
+        <v>0.4695142577647812</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>668</v>
@@ -1192,19 +1192,19 @@
         <v>448191</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>419566</v>
+        <v>419578</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>476952</v>
+        <v>477943</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4202550385387402</v>
+        <v>0.4202550385387403</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3934139425294462</v>
+        <v>0.3934250004651292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4472235217428464</v>
+        <v>0.4481526489202269</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1111</v>
@@ -1213,19 +1213,19 @@
         <v>902157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>854656</v>
+        <v>858481</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>947122</v>
+        <v>947193</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4266518393563118</v>
+        <v>0.426651839356312</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4041878503393921</v>
+        <v>0.4059965127982997</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4479169853163045</v>
+        <v>0.4479504918773157</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>120703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>102420</v>
+        <v>100370</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143905</v>
+        <v>142816</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1151716820602462</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09772641139016239</v>
+        <v>0.09577064658616331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1373103243959477</v>
+        <v>0.1362714444476884</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>337</v>
@@ -1263,19 +1263,19 @@
         <v>215694</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>196019</v>
+        <v>193351</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>239358</v>
+        <v>238575</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2022494396776663</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1838007219694544</v>
+        <v>0.1812993790651095</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.224438768051563</v>
+        <v>0.2237043188731792</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>466</v>
@@ -1284,19 +1284,19 @@
         <v>336397</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>305427</v>
+        <v>303163</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>368506</v>
+        <v>366395</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1590903480844214</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1444439464140352</v>
+        <v>0.1433732197821722</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1742753568981579</v>
+        <v>0.1732769888255519</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>21420</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12309</v>
+        <v>12823</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34769</v>
+        <v>35653</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02043851020834815</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01174471552401718</v>
+        <v>0.01223514513503707</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03317559368264657</v>
+        <v>0.03401913870831587</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -1334,19 +1334,19 @@
         <v>27707</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20304</v>
+        <v>19970</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39068</v>
+        <v>39177</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.02597967389904958</v>
+        <v>0.02597967389904959</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01903889867180171</v>
+        <v>0.01872545399391488</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03663321146799403</v>
+        <v>0.0367348195092632</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>59</v>
@@ -1355,19 +1355,19 @@
         <v>49127</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>37291</v>
+        <v>36697</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>65791</v>
+        <v>64378</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02323325968486106</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01763560680721867</v>
+        <v>0.01735498723144879</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03111434269896818</v>
+        <v>0.03044614149853832</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>353190</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>319200</v>
+        <v>320070</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>387850</v>
+        <v>389669</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4421768809320853</v>
+        <v>0.4421768809320852</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3996232539391133</v>
+        <v>0.4007122138313499</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4855704429526515</v>
+        <v>0.4878467482105241</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>326</v>
@@ -1480,19 +1480,19 @@
         <v>268691</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>242538</v>
+        <v>245220</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>292692</v>
+        <v>295198</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3321038646947128</v>
+        <v>0.3321038646947129</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2997788681714327</v>
+        <v>0.3030939448503963</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3617699251668725</v>
+        <v>0.3648671916604554</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>604</v>
@@ -1501,19 +1501,19 @@
         <v>621880</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>581625</v>
+        <v>582110</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>663945</v>
+        <v>663611</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.38678766928483</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3617505479192181</v>
+        <v>0.3620519406777991</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4129502366951997</v>
+        <v>0.4127428602598617</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>334184</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>303636</v>
+        <v>301248</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>366169</v>
+        <v>366520</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4183824021314356</v>
+        <v>0.4183824021314355</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3801378804387087</v>
+        <v>0.3771485755113949</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.45842590474672</v>
+        <v>0.4588663982835163</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>501</v>
@@ -1551,19 +1551,19 @@
         <v>373910</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>349944</v>
+        <v>345723</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>400985</v>
+        <v>398947</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.4621564426795385</v>
+        <v>0.4621564426795384</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4325342686318455</v>
+        <v>0.4273168177070035</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4956205929846959</v>
+        <v>0.4931017480708049</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>798</v>
@@ -1572,19 +1572,19 @@
         <v>708094</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>665085</v>
+        <v>665895</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>750845</v>
+        <v>750750</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4404096861966394</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.413659188687137</v>
+        <v>0.4141630984661011</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4669991055587952</v>
+        <v>0.4669403342260895</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>93230</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>75659</v>
+        <v>74244</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118376</v>
+        <v>116029</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1167198209142255</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09472159431468523</v>
+        <v>0.09294970173564714</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1482007160657987</v>
+        <v>0.1452623572540396</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>173</v>
@@ -1622,19 +1622,19 @@
         <v>133311</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>116460</v>
+        <v>116047</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>155675</v>
+        <v>153627</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1647737859082842</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1439460904874994</v>
+        <v>0.1434349958092208</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1924153055160133</v>
+        <v>0.1898839032289177</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>255</v>
@@ -1643,19 +1643,19 @@
         <v>226541</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>197852</v>
+        <v>199168</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>253368</v>
+        <v>256499</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.140900781230656</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.123057015348049</v>
+        <v>0.1238757589500836</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1575860759978801</v>
+        <v>0.1595334627230665</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>18148</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11040</v>
+        <v>10751</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29509</v>
+        <v>28291</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02272089602225378</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01382123501686286</v>
+        <v>0.01345997703594932</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0369440610972744</v>
+        <v>0.03541849130111814</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -1693,19 +1693,19 @@
         <v>33144</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24243</v>
+        <v>24626</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45797</v>
+        <v>45277</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04096590671746451</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02996436464334878</v>
+        <v>0.03043776919763723</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05660516028465606</v>
+        <v>0.05596305758519308</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -1714,19 +1714,19 @@
         <v>51292</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39558</v>
+        <v>38088</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69065</v>
+        <v>65492</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03190186328787457</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02460338077171917</v>
+        <v>0.02368924792839737</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04295583874182391</v>
+        <v>0.04073399338610798</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>388271</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>355183</v>
+        <v>352599</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>418739</v>
+        <v>422280</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3934092491363929</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.359883748709663</v>
+        <v>0.3572657384954893</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4242806645988919</v>
+        <v>0.4278684999105477</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>430</v>
@@ -1839,19 +1839,19 @@
         <v>336248</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>309420</v>
+        <v>310216</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>367142</v>
+        <v>366894</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3004787777159743</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2765048331131932</v>
+        <v>0.2772160950691354</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3280863622866788</v>
+        <v>0.3278643394903974</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>798</v>
@@ -1860,19 +1860,19 @@
         <v>724519</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>680915</v>
+        <v>677587</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>773972</v>
+        <v>771202</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3440293681259395</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3233243677164874</v>
+        <v>0.3217444562756679</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3675114585779953</v>
+        <v>0.3661963162884508</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>403472</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>370402</v>
+        <v>372624</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>435891</v>
+        <v>437573</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4088112813293764</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3753035188035462</v>
+        <v>0.377555092317793</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4416599272495785</v>
+        <v>0.443364072372268</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>672</v>
@@ -1910,19 +1910,19 @@
         <v>465856</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>438989</v>
+        <v>437538</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>496209</v>
+        <v>496165</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4162992696253658</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.392290481492828</v>
+        <v>0.3909932731362656</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4434233039210893</v>
+        <v>0.4433842726728323</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1099</v>
@@ -1931,19 +1931,19 @@
         <v>869328</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>822833</v>
+        <v>821677</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>915779</v>
+        <v>912933</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4127901266468703</v>
+        <v>0.4127901266468701</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.390712838351492</v>
+        <v>0.3901637751461335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.434846953874725</v>
+        <v>0.4334956954732248</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>173192</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>148672</v>
+        <v>147411</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>198482</v>
+        <v>198591</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1754836244592706</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1506391159181072</v>
+        <v>0.1493617539831831</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2011082024484006</v>
+        <v>0.2012191515326993</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>392</v>
@@ -1981,19 +1981,19 @@
         <v>270792</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>246389</v>
+        <v>245739</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>296606</v>
+        <v>295326</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2419859317553635</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2201787334654429</v>
+        <v>0.219597704199096</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.265053670146045</v>
+        <v>0.2639097022774468</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>576</v>
@@ -2002,19 +2002,19 @@
         <v>443984</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>411186</v>
+        <v>407389</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>482436</v>
+        <v>480658</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2108205378635443</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1952467252233273</v>
+        <v>0.1934438593298242</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2290791388629367</v>
+        <v>0.2282346087422718</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>22005</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14220</v>
+        <v>14825</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32917</v>
+        <v>32617</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02229584507496007</v>
+        <v>0.02229584507496008</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01440786125786323</v>
+        <v>0.01502114213586899</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03335284996837037</v>
+        <v>0.03304907178312246</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>68</v>
@@ -2052,19 +2052,19 @@
         <v>46145</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35410</v>
+        <v>35834</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56421</v>
+        <v>58377</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04123602090329652</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03164350648719211</v>
+        <v>0.03202211513850996</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0504194459444169</v>
+        <v>0.05216667728806051</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -2073,19 +2073,19 @@
         <v>68149</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>55783</v>
+        <v>54149</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82394</v>
+        <v>82794</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03235996736364592</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02648812849632435</v>
+        <v>0.02571184586133963</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03912371166354333</v>
+        <v>0.03931353396225955</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>1485169</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1426737</v>
+        <v>1419607</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1551023</v>
+        <v>1548357</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4215704317161431</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4049842569062073</v>
+        <v>0.4029603291262993</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4402633575936123</v>
+        <v>0.4395065435480799</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1530</v>
@@ -2198,19 +2198,19 @@
         <v>1199519</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1150080</v>
+        <v>1145526</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1254317</v>
+        <v>1250241</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3221705131696589</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.308892026134402</v>
+        <v>0.307668705993354</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3368881711608193</v>
+        <v>0.3357934296357123</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2815</v>
@@ -2219,19 +2219,19 @@
         <v>2684688</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2602899</v>
+        <v>2601237</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2768980</v>
+        <v>2770119</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3704966622064528</v>
+        <v>0.3704966622064529</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3592094237287112</v>
+        <v>0.3589800408657222</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3821292174075759</v>
+        <v>0.3822863725558159</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>1484787</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1416220</v>
+        <v>1416194</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1545497</v>
+        <v>1546052</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4214618732613452</v>
+        <v>0.4214618732613453</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.401999032405469</v>
+        <v>0.4019915594242119</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4386946152634701</v>
+        <v>0.438852249817088</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2415</v>
@@ -2269,19 +2269,19 @@
         <v>1616578</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1567145</v>
+        <v>1561189</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1670211</v>
+        <v>1671086</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4341853946161142</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4209085492643319</v>
+        <v>0.4193087438746805</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4485901741428341</v>
+        <v>0.448825218317553</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3911</v>
@@ -2290,19 +2290,19 @@
         <v>3101365</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3023974</v>
+        <v>3021059</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3186452</v>
+        <v>3186346</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4279994862345509</v>
+        <v>0.427999486234551</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4173193058018898</v>
+        <v>0.4169170301871764</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.439741819037162</v>
+        <v>0.4397271443291786</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>475437</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>434232</v>
+        <v>432977</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>517948</v>
+        <v>519071</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1349545247891886</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1232582176166565</v>
+        <v>0.1229020532901855</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1470214239507792</v>
+        <v>0.1473401443515666</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1213</v>
@@ -2340,19 +2340,19 @@
         <v>779756</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>737792</v>
+        <v>737183</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>823444</v>
+        <v>826313</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.209429186210488</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1981583328914097</v>
+        <v>0.1979946866561285</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2211629265897101</v>
+        <v>0.2219335740052676</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1726</v>
@@ -2361,19 +2361,19 @@
         <v>1255193</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1195976</v>
+        <v>1198238</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1319885</v>
+        <v>1317888</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1732211727640043</v>
+        <v>0.1732211727640044</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1650490238353145</v>
+        <v>0.1653611315555578</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1821488198656609</v>
+        <v>0.181873272637161</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>77551</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>61456</v>
+        <v>61759</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>98836</v>
+        <v>96674</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02201317023332309</v>
+        <v>0.0220131702333231</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01744449830003112</v>
+        <v>0.01753039192026387</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02805490689302049</v>
+        <v>0.027441228551786</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>184</v>
@@ -2411,19 +2411,19 @@
         <v>127390</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>110608</v>
+        <v>109273</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>148406</v>
+        <v>147012</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.03421490600373888</v>
+        <v>0.03421490600373889</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02970731289286047</v>
+        <v>0.0293489535229096</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0398591982465193</v>
+        <v>0.03948505189985661</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>257</v>
@@ -2432,19 +2432,19 @@
         <v>204942</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>178743</v>
+        <v>178177</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>233375</v>
+        <v>234549</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.02828267879499184</v>
+        <v>0.02828267879499185</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02466721172958633</v>
+        <v>0.02458903746453586</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03220660860183246</v>
+        <v>0.03236856126839347</v>
       </c>
     </row>
     <row r="28">
